--- a/Termékek/Chopstick holder/Kulcsszavak/eRank - keywords_régebbi.xlsx
+++ b/Termékek/Chopstick holder/Kulcsszavak/eRank - keywords_régebbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkupi\Documents\Etsy ceramic\Termékek\Chopstick holder\Kulcsszavak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF6764-E364-40DB-BAE2-E1CA232D15BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F850A50-83D1-423A-957D-C1A8441E890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,22 +147,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -176,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,7 +486,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,17 +503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -556,217 +567,217 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f>C3/F3</f>
         <v>3.4390651085141902E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>16</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>379</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>281</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>0.74</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1038</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>2400</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I10" si="0">C4/F4</f>
         <v>0.36512524084778419</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>697</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>1025</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>1.47</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>696</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>1600</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>1.0014367816091954</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>16</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>8295</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>7921</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>0.95</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>139544</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>12100</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>5.9443616350398437E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="14">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>462</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="14">
         <v>613</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <v>1.33</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="16">
         <v>5826</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="16">
         <v>368000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="17">
         <f t="shared" si="0"/>
         <v>7.929969104016478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>19</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>103</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>105</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>1.02</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>7448</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>1300</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>1.382921589688507E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>336</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>431</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>1.28</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>149227</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>6600</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>2.2516032621442499E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>1081</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>1325</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>1.23</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
         <v>27611</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <v>2740000</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>3.9151062982144796E-2</v>
       </c>
